--- a/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/Tipos/Tipos.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/Tipos/Tipos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastrar" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+  <si>
+    <t>IDTIPO</t>
+  </si>
+  <si>
+    <t>DESCRICAO</t>
+  </si>
+  <si>
+    <t>AFASTDOENCA</t>
+  </si>
+  <si>
+    <t>AFASTACIDENTE</t>
+  </si>
+  <si>
+    <t>HORASSERVMILITAR</t>
+  </si>
+  <si>
+    <t>HORASFERIAS</t>
+  </si>
+  <si>
+    <t>HORASNORMAIS</t>
+  </si>
+  <si>
+    <t>HORASEXTRAS</t>
+  </si>
+  <si>
+    <t>LICENMATERNIDADE</t>
+  </si>
+  <si>
+    <t>HORASFALTAS</t>
+  </si>
+  <si>
+    <t>PROLABORE</t>
+  </si>
+  <si>
+    <t>SALDOFGTS</t>
+  </si>
+  <si>
+    <t>MULTARESC</t>
+  </si>
+  <si>
+    <t>FERIASRESC</t>
+  </si>
+  <si>
+    <t>EVEINSS</t>
+  </si>
+  <si>
+    <t>EVEIRRF</t>
+  </si>
+  <si>
+    <t>AVPREVIOI</t>
+  </si>
+  <si>
+    <t>MEDIAHREXT</t>
+  </si>
+  <si>
+    <t>ADICFER</t>
+  </si>
+  <si>
+    <t>INDENIZADIC</t>
+  </si>
+  <si>
+    <t>RECLUSAO</t>
+  </si>
+  <si>
+    <t>EVEVARIAVEL</t>
+  </si>
+  <si>
+    <t>CALCMENSAL</t>
+  </si>
+  <si>
+    <t>LICENPATERNIDADE</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>Cesta de Teste</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -31,10 +120,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -46,8 +160,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,76 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,17 +207,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,13 +273,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,19 +357,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,96 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,24 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,35 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,21 +487,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +520,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -480,148 +569,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,19 +1040,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="20" width="9.14285714285714" style="1"/>
+    <col min="21" max="21" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="22" max="24" width="9.14285714285714" style="1"/>
+    <col min="25" max="25" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -972,17 +1220,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="24" width="9.14285714285714" style="1"/>
+    <col min="25" max="25" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.14285714285714" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
